--- a/docs/Year2/BlockC/MS Teams Assignment Template/Assessment Rubric - Y2C_2022-23_ADSAI.xlsx
+++ b/docs/Year2/BlockC/MS Teams Assignment Template/Assessment Rubric - Y2C_2022-23_ADSAI.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramh\Documents\GitHub\AAI-DM\docs\Year2\BlockC\MS Teams Assignment Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edubuas.sharepoint.com/teams/ADSAI2022-23/Shared Documents/General/Design documentation/Year 2 Design/Block C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C96759-D418-4067-A1E4-75506A0EDA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{21C96759-D418-4067-A1E4-75506A0EDA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE39561-9357-4FF1-980F-E59CD450B1F1}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Self-Assessment" sheetId="6" r:id="rId1"/>
-    <sheet name="Overview" sheetId="8" r:id="rId2"/>
+    <sheet name="Overview" sheetId="9" r:id="rId2"/>
     <sheet name="ASSESSMENT RUBRIC" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <customWorkbookViews>
     <customWorkbookView name="Abhishek" guid="{4E2C683C-CCF4-436A-A732-2090B3E44A13}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="214">
   <si>
     <t>Student Self-Assessment</t>
   </si>
@@ -92,6 +92,9 @@
     <t>Project</t>
   </si>
   <si>
+    <t>2022-23C FGA2.P3-ADSAI</t>
+  </si>
+  <si>
     <t>Opportunity</t>
   </si>
   <si>
@@ -101,9 +104,15 @@
     <t>Project Deadline</t>
   </si>
   <si>
+    <t>5pm Friday 7th April</t>
+  </si>
+  <si>
     <t>Grading Rubric</t>
   </si>
   <si>
+    <t>Competencies</t>
+  </si>
+  <si>
     <t>Indicated Learning Outcomes &amp; Assessment Indicators</t>
   </si>
   <si>
@@ -134,586 +143,283 @@
     <t>SCORE</t>
   </si>
   <si>
-    <t>1.0 Professional Practice
-The student demonstrates professional behavior as well as accountability and ethics in the application of industry best practices for planning, communication, collaboration, and responsible execution of work assignments, where an excellent performance would show:</t>
-  </si>
-  <si>
-    <t>The student submits work frequently and on time, adhering to defined guidelines and processes.</t>
-  </si>
-  <si>
-    <t>Not addressed this block in your project work. Your project work evidencing can include your Learning Log, Work-log, GitHub commits and supporting documents you submitted with your project by uploading during hand-in.</t>
-  </si>
-  <si>
-    <t>Submits at least once a week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submits once per task. And meeting all criteria in poor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear comments per submission. All docementation required is present. Submissions are thouroughly checked before submitting.  Clear understanding of workspaces/client/server. And meeting all criteria in insufficient. </t>
-  </si>
-  <si>
-    <t>2.0 Personal Development &amp; Academic Practice
-The student demonstrate self-exploration and personal development, good academic practices in learning how to learn and the acquisition of professional knowledge through research, 
-study, analysis, applied practice, discussion and reporting, where an excellent performance would show:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10
-</t>
-  </si>
-  <si>
-    <t>The student reports on learning progress and updates plans in a well-written, concise format with appropriate visual communication, guided by active engagement with feedback.</t>
-  </si>
-  <si>
-    <t>The learning log is complete. There is no evidence of plagiarism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each week in the learning log details important tasks completed. And meeting all criteria in poor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each week the learning log details what was learnt. Each of the ILOs in the learning log detail how they were addressed. And meeting all criteria in insufficient. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All references to important resources used are included. Your evidence is clear and to the point. And meeting all criteria in sufficient. </t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>The student attends the mini-conference.</t>
-  </si>
-  <si>
-    <t>3, 11</t>
-  </si>
-  <si>
-    <t>The student is able to develop and implement appropriate data management methods integrating legal and ethical concerns to facilitate their study design.​</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">5.0 Decision Intelligence and Statistical inference​
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">1.3 Reflection: Demonstrates self-exploration and personal development and good academic practices in learning how to learn, and acquiring professional knowledge through research, study, analysis, reflection, discussion and reporting.
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>The student is able to make use of appropriate statistical methods to test their hypotheses and propose the best course of action based on their analyses.</t>
+      <t>Reflects on personal behaviour and attitudes, showing critical analysis of key lessons learned and identifying clear action points for improvement.</t>
     </r>
   </si>
   <si>
-    <t>5,6,7,8</t>
-  </si>
-  <si>
-    <t>The student is able to make use of appropriate statistical methods to test their hypotheses and propose the best course of action based on their analyses.</t>
-  </si>
-  <si>
-    <t>Appropriate statistical methods are chosen and their motivation is documented by means of a clear purpose statement.</t>
-  </si>
-  <si>
-    <t>The methods used are implemented correctly. Meets all criteria in poor.</t>
-  </si>
-  <si>
-    <t>The evidence observed is linked back to the hypothesis under test (e.g., using a p-value). And meets all criteria in insufficient.</t>
-  </si>
-  <si>
-    <t>Estimates of the size of the effect is provided (e.g., using confidence intervals). And meets all criteria in sufficient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The student proposes clear decisions based on the collected evidence and quantifies uncertainity where necessary. To increase our confidence in the proposed decision, power analyses was carried out and interpreted correctly. And meeting all criteria in good. </t>
-  </si>
-  <si>
-    <t>A literature review is present and appropriate sources of are used. Latex is used for drafting the document.</t>
-  </si>
-  <si>
-    <t>The research question and hypothesis are clearly stated. And meets all criteria in poor.</t>
-  </si>
-  <si>
-    <t>The methods section clearly outlines the research methodology. And meets all criteria in insufficient.</t>
-  </si>
-  <si>
-    <t>The results section clearly interprets the findings of the analysis. And meets all criteria in sufficient.</t>
-  </si>
-  <si>
-    <t>The discussion section critically discusses the findings and includes policy implications and future research. And meets all criteria in good.</t>
-  </si>
-  <si>
-    <t>ADS&amp;AI Competencies</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>CRISP Phase</t>
-  </si>
-  <si>
-    <t>Competency</t>
-  </si>
-  <si>
-    <t>Graduate Level</t>
-  </si>
-  <si>
-    <t>Professional Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project management and cooperation </t>
-  </si>
-  <si>
-    <t>The student can collaborate (internationally) in multidisciplinary teams with different levels of knowledge in the field of data use and applications. The student can set up and execute projects in collaboration with stakeholders and team members. The student can act as a sounding board in discussions with team members, customers, users and experts. The student strives for a good balance between input of her own vision and additional expertise of others. The student is able to lead a team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Researching and reflective attitude </t>
-  </si>
-  <si>
-    <t>The student applies relevant (research) methods and techniques in combination with relevant and adequate argumentation. The student can reflect on (business) processes and her role in them, both theoretically and practically, by constantly evaluating her own actions and adapting them with input from others. The student can translate the result of the reflection into concrete personal learning objectives.</t>
-  </si>
-  <si>
-    <t>Responsibility</t>
-  </si>
-  <si>
-    <t>The student is aware of legal and ethical aspects within the context of her professional work environment and is able to make substantiated considerations in this regard. The student acts from justice and integrity.</t>
-  </si>
-  <si>
-    <t>Business understanding</t>
-  </si>
-  <si>
-    <t>Problem analysis</t>
-  </si>
-  <si>
-    <t>Domain knowledge</t>
-  </si>
-  <si>
-    <t>The student has such knowledge of and insight into one or more domains that The student can function as a discussion partner for experts. The student is able to quickly immerse herself in new domains and associated professional networks.</t>
-  </si>
-  <si>
-    <t>Data understanding</t>
-  </si>
-  <si>
-    <t>Data collection and processing</t>
-  </si>
-  <si>
-    <t>The student masters (programming) skills to acquire, pre-process, process and manage the necessary data to create value for individuals, organizations and domains.</t>
-  </si>
-  <si>
-    <t>Data preparation</t>
-  </si>
-  <si>
-    <t>Data analysis</t>
-  </si>
-  <si>
-    <t>Modelling</t>
-  </si>
-  <si>
-    <t>Design, prototyping and implementation</t>
-  </si>
-  <si>
-    <t>Evaluation &amp; Deployment</t>
-  </si>
-  <si>
-    <t>Visualisation</t>
-  </si>
-  <si>
-    <t>The student can apply visualization and storytelling techniques and skills to effectively and accurately inform stakeholders about (interim) results of AI and DS approaches.</t>
-  </si>
-  <si>
-    <t>Reporting and advising</t>
-  </si>
-  <si>
-    <t>The studentan can translate (interim) results into effective reporting. The student sees opportunities and possibilities and can translate these from a market-oriented vision into new concepts, products or services, while keeping the business side of the organization in mind.</t>
-  </si>
-  <si>
-    <t>Dublin Descriptors</t>
-  </si>
-  <si>
-    <t>Outcomes</t>
-  </si>
-  <si>
-    <t>First cycle qualifications (Bachelor Level)
-Qualifications that signify completion of the first cycle are awarded to students who:</t>
-  </si>
-  <si>
-    <t>Second cycle qualifications (Master Level)
-Qualifications that signify completion of the second cycle are awarded to students who:</t>
-  </si>
-  <si>
-    <t>Knowledge and Understanding</t>
-  </si>
-  <si>
-    <t>Have demonstrated knowledge and understanding in a field of study that builds upon their general secondary education, and is typically at a level that, while supported by advanced textbooks, includes some aspects that will be informed by knowledge of the forefront of their field of study.</t>
-  </si>
-  <si>
-    <t>Have demonstrated knowledge and understanding that is founded upon and extends and/or enhances that typically associated with the first cycle, and that provides a basis or opportunity for originality in developing and/or applying ideas, often within a research context.</t>
-  </si>
-  <si>
-    <t>Applying Knowledge and Understanding</t>
-  </si>
-  <si>
-    <t>Can apply their knowledge and understanding in a manner that indicates a professional approach to their work or vocation, and have competences typically demonstrated through devising and sustaining arguments and solving problems within their field of study.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can apply their knowledge and understanding, and problem solving abilities in new or unfamiliar environments within broader (or multidisciplinary) contexts related to their field of study.
+    <t>Reflects on personal behaviour and attitudes, showing critical analysis of key lessons learned and identifying clear action points for improvement.</t>
+  </si>
+  <si>
+    <t>Not addressed this block in your project work. Your project work evidencing can include your Learning Log, Work-log, GitHub commits and supporting documents you submitted with your project by uploading during hand-in.</t>
+  </si>
+  <si>
+    <t>Evidence of reflection in Section B and Section D of the Learning Log is limited and/or incomplete.</t>
+  </si>
+  <si>
+    <t>Reflections in Section B and Section D of the Learning Log are partly completed. And meeting all criteria in poor.</t>
+  </si>
+  <si>
+    <t>Reflections show some insight and critical analysis, and are clearly written. Action points are created on a regular basis. And meeting all criteria in insufficient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflections show strong insight and critical analysis, identifying key lessons learned. Action points are addressed in subsequent weeks and result in improved progress. And meeting all criteria in sufficient. </t>
+  </si>
+  <si>
+    <t>Evidence shows that reflection on the key lessons learned is used to identify clear steps forward that are applicable to future projects and professional development. And meeting all criteria in good.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">2.2 Tracking time: Demonstrates professional behavior with accountability and integrity in the application of industry best practices for planning, execution and tracking work.
 </t>
-  </si>
-  <si>
-    <t>Making Judgements</t>
-  </si>
-  <si>
-    <t>Have the ability to gather and interpret relevant data (usually within their field of study) to inform judgements that include reflection on relevant social, scientific or ethical issues.</t>
-  </si>
-  <si>
-    <t>Have the ability to integrate knowledge and handle complexity, and formulate judgements with incomplete or limited information, but that include reflecting on social and ethical responsibilities linked to the application of their knowledge and judgements.</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Can communicate information, ideas, problems and solutions to both specialist and non- specialist audiences.</t>
-  </si>
-  <si>
-    <t>Can communicate their conclusions, and the knowledge and rationale underpinning these, to specialist and non-specialist audiences clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Learning Skills</t>
-  </si>
-  <si>
-    <t>Have developed those learning skills that are necessary for them to continue to undertake further study with a high degree of autonomy.</t>
-  </si>
-  <si>
-    <t>Have the learning skills to allow them to continue to study in a manner that may be largely self-directed or autonomous.</t>
-  </si>
-  <si>
-    <t>ILO</t>
-  </si>
-  <si>
-    <t>Data Structure - Demonstrate understanding of standard data structure and able to derive required structures for the project with strong reasoning and able to discuss the pros and cons.</t>
-  </si>
-  <si>
-    <t>Missing (0 points)</t>
-  </si>
-  <si>
-    <t>Poor (2 points)</t>
-  </si>
-  <si>
-    <t>Insufficient (4 points)</t>
-  </si>
-  <si>
-    <t>Sufficient (6 points)</t>
-  </si>
-  <si>
-    <t>Good (8 points)</t>
-  </si>
-  <si>
-    <t>Excellent (10 points)</t>
-  </si>
-  <si>
-    <t>Demonstrates an understanding of standard datastructures and how they are selected, the internal structure and use.</t>
-  </si>
-  <si>
-    <t>Data Structure - Demonstrate understanding of standard data structures (Containers, algorithms, iterators etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not addressed this block in project work.
-</t>
-  </si>
-  <si>
-    <t>Research for the basic data structures is not enough to start the implementation for a working code.</t>
-  </si>
-  <si>
-    <t>Researched basic structures without much in depth analysis showing partial understanding of the concept .</t>
-  </si>
-  <si>
-    <t>Analysed the requirements for the project and researched those data structure well enough to get them working in the project.</t>
-  </si>
-  <si>
-    <t>Reseached in-depth, for performance factors (memory, runtime overheads, robustness etc..) of the data structures and able to conclude the pros &amp; cons of their implementation.</t>
-  </si>
-  <si>
-    <t>Researched the best practices for building a library which can be used for generic purposes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not evidenced this block in learning Log.
-</t>
-  </si>
-  <si>
-    <t>Poorly Evidenced in Learning Log.</t>
-  </si>
-  <si>
-    <t>Documentation fail to prove certain key points which help in mapping the research to the project's need.</t>
-  </si>
-  <si>
-    <t>The understanding is well documented including certain key reflection towards next steps on the topics.</t>
-  </si>
-  <si>
-    <t>Researched exceptions and edge conditions of the structures for robust implementation .</t>
-  </si>
-  <si>
-    <t>Presented an excellent research document, backed up with use cases and details from project.</t>
-  </si>
-  <si>
-    <t>Demonstrating understanding of performance (memory, runtime overheads, robustness etc..) of the derived data types, the overall game performance and memory footprint.</t>
-  </si>
-  <si>
-    <t>Data Stucture - Build your library of data stuctures</t>
-  </si>
-  <si>
-    <t>Not addressed this block in project work.</t>
-  </si>
-  <si>
-    <t>Poorly analysed the used case for data structure followed by incorrect to no implementation.</t>
-  </si>
-  <si>
-    <t>Standard operators are implemented to minimum functionality.</t>
-  </si>
-  <si>
-    <t>All standard operators are functional with only minor or no bugs.</t>
-  </si>
-  <si>
-    <t>Required data structures implemented fully and used well in project.</t>
-  </si>
-  <si>
-    <t>Library proves robustness with implemented unit test cases.</t>
-  </si>
-  <si>
-    <t>Deriving an efficient practice for a context, backing up with strong reasons for the chosen approach.</t>
-  </si>
-  <si>
-    <t>Poorly evidenced in Learning Log.</t>
-  </si>
-  <si>
-    <t>Rare use cases demonstrated in project.</t>
-  </si>
-  <si>
-    <t>Data structures partially organised in a library.</t>
-  </si>
-  <si>
-    <t>All or most of the data structures organised in a library.</t>
-  </si>
-  <si>
-    <t>Library is generic enough to be used for multiple projects this block.</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Is</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Working Environment : 3.1 - Proficient in using development and production tools at a professional level (e.g. Perforce, Visual Studio- 2019 as an editor / debugger / profiler).</t>
-  </si>
-  <si>
-    <t>Poor demonstration of use cases of VS2019 as a  editor, debugger. Repeated mistakes in using VS2019 due to lack of understanding and research on the topics. Did not demonstrated much learning on the topic and progress. 
-Poorly documented the learning.</t>
-  </si>
-  <si>
-    <t>Shown use cases and understanding of VS2019 as a C++ project editor.
-Can demonstrate some usertanding and use cases of VS2019 Debugger.</t>
-  </si>
-  <si>
-    <t>Can demonstrate extensive use of VS2019 debugger. 
-Researched and included VS2019 plugins and shows understanding of the usage and purposes of the plugins.
-Can create VS2019 C++ project from scratch
-Can maintain filters and physical folders with consistent naming conventions for VS2019 projects.</t>
-  </si>
-  <si>
-    <t>Can proficiently use VS2019 profiler and shows understanding of profiler concepts and how they can useful in improving performance of game
-researched into atleast 1 or more profilers (CPU/GPU) and discussed the pros and cons or similaritites with VS2019 profiler.
-Based on the project's requirement invest into atleast 1 more production /developement tool (eg: 2D-Level editors, Sound Editors etc.).</t>
-  </si>
-  <si>
-    <t>Attitude towards building an automatic pipeline integrating production tools for build releases or production helpers.</t>
-  </si>
-  <si>
-    <t>Perforce</t>
-  </si>
-  <si>
-    <t>Poor understanding of source control operations, and consistent repetation of minor mistakes using perforce for project without showcasing any progress in learning. Poorly documented evidence</t>
-  </si>
-  <si>
-    <t>Can use perforce for a day to day basis with basic functionalities, but does not demonstrate much understanding of concepts through use cases or learning documents.</t>
-  </si>
-  <si>
-    <t>Demonstrates understanding of Perforce by showing use of atleast 4 or more operations and their purposes. Shows clear understanding of working with source control - Changelist, versions etc.</t>
-  </si>
-  <si>
-    <t>Demonstrates understanding of Perforce by showing: 1) use of atleast 6 or more operations and their purposes. 2) Atleast 1 use case showcasing alternate set of operations serving the same use case. Shows clear understanding of source control termilogy - Client/Server/Workspace.</t>
-  </si>
-  <si>
-    <t>Optional, uses perforce commandline utility to build and configure custom perforce clients for basic operations.</t>
-  </si>
-  <si>
-    <t>Working Environment : 3.2 - Understanding C++ Build Process &amp; setting up and maintaining multiple game projects optimally where the projects easily check-out and compiles on other computers.</t>
-  </si>
-  <si>
-    <t>Learning evidence and project setup demonstrates poor understanding of the build process in C++.</t>
-  </si>
-  <si>
-    <t>Sufficient understanding of pre-compile and compile stage, but insufficient understanding of Linker stage. Documents not well written to demonstate the learning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows basic understanding of 3 key phases of C++ build process (precompile, compile and link stage) and reports the learning well in document and applies them in project. Makes suitable judgement of the files that needs to be or does not need to be on Perforce . </t>
-  </si>
-  <si>
-    <t>Shows in depth analysis of the stages of build process in C++ project. 
-Only the essential source files for building the game is submitted to perforce atleast 80% of the block.</t>
-  </si>
-  <si>
-    <t>Explore other build option than VS2019. (Commandline and batch files can also be considered)</t>
-  </si>
-  <si>
-    <t>Final build compiles and runs with less than 3 warnings and no errors</t>
-  </si>
-  <si>
-    <t>Source code from perforce can be downloaded and build with no errors and warnings more than 80% of the time throughout the block</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Use of C++ efficiently &amp; effectively and OOP design principles.</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>No evidence provided</t>
-  </si>
-  <si>
-    <t>Poor understanding of C++ language constructs</t>
-  </si>
-  <si>
-    <t>Correct usage of basic data types, casting methods, references, and pointers. Understands scope, object lifetime, and control flow</t>
-  </si>
-  <si>
-    <t>Appropriate usage of classes, functions, polymorphism and abstraction. Code runs cleanly without any crashes. Understanding of basic memory primitives such as arrays.</t>
-  </si>
-  <si>
-    <t>Documented reasoning behind decisions with regards to performance and memory usage of chosen algorithms. No memory leaks or undefined behaviour present in the code. Understanding of the stack and heap. Understanding of binary and bitwise operations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applies modern C++ guidelines with a clear reasoning why or why not. Consistent coding style. Const-correct code with clear and defined responsibilities for all objects and functions. </t>
-  </si>
-  <si>
-    <t>OOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student shows clear understanding of the purpose of each of the documents. Submissions are at a professional level with regards to language used, writing styles, content and tidiness. And meeting all criteria in good. </t>
-  </si>
-  <si>
-    <t>PROJECT TOTAL</t>
-  </si>
-  <si>
-    <t>YOUR TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your writing style is professional and free of spelling and grammar mistakes. Feedback is taken into account and is acted upon. And meeting all criteria in good. </t>
-  </si>
-  <si>
-    <t>Competencies</t>
-  </si>
-  <si>
-    <t>The student can use analytical and statistical methods to analyse data to create value for individuals, organizations and domains.</t>
-  </si>
-  <si>
-    <t>The student can apply modelling techniques including Machine Learning and AI to create value for individuals, organizations and domains.</t>
-  </si>
-  <si>
-    <t>The student can develop a prototype using an iterative cycle, explicitly involving stakeholders, and implement applications within an (existing) architecture.</t>
-  </si>
-  <si>
-    <t>The student can analyse a problem by describing the context, trade-offs and formulation of the final demand (as a result of a process of demand articulation). In doing so, The student identifies the possible solutions. As a result, The student can formulate an approach for a data trajectory considering relevant actors and interests, involving relevant theories and (technical) possibilities.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.0 Scientific Reporting: </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">The student is able to communicate findings by means of a structured, coherent, and well argued  scientific report using Latex. </t>
+      <t>Accurately tracks time spent on planned and unplanned work, noting reasons for and consequences of deviations from the planned work.</t>
     </r>
   </si>
   <si>
-    <t>The student is able to communicate findings by means of a structured, coherent, and well argued  scientific report using Latex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each submission clearly demonstrates clear processing of feedback received. Correct spelling and good grammar used. Use of professional wording throughout. And meeting all criteria in sufficient. </t>
-  </si>
-  <si>
-    <t>3.0 Digital Transformation 2: The student is able to explain and contrast the attitudes, knowledge, acceptance, and perceived impact of AI on the domains of BUas by means of a research proposal and formulate research questions and consequently, hypotheses which can be tested.​</t>
-  </si>
-  <si>
-    <t>The student is able to explore and contrast the attitudes, knowledge, acceptance, and perceived impact of AI on the domains of BUas by means of a literature study and on this basis, draft a research proposal formulating research questions and consequently, hypotheses which can be tested.​</t>
-  </si>
-  <si>
-    <t>A literature review documenting the current state of attitudes, knowledge, acceptance, and perceived impact of AI on the domains of BUas is present.  And meeting all criteria in poor.</t>
-  </si>
-  <si>
-    <t>Research question(s) investigating the current state of attitudes, knowledge, acceptance, and perceived impact of AI on the domains of BUas are formulated. And meeting all criteria in insufficient.</t>
-  </si>
-  <si>
-    <t>Research questions investigating the current state of attitudes, knowledge, acceptance, and perceived impact of AI on the domains of BUas are translated into hypothesis which can be put to the test. And meeting all criteria in sufficient.</t>
-  </si>
-  <si>
-    <t>A coherent research proposal is present containing the current state of attitudes, knowledge, acceptance, and perceived impact of AI on the domains of BUas. And meeting all criteria in Good.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposes improvements to the data management strategy or procedures. And meeting all criteria in good. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The execution of the Research Data Management Plan adhered to F.A.I.R principles. And meeting all criteria in sufficient. </t>
-  </si>
-  <si>
-    <t>The procedures defined in Research Data Management Plan and data storage protocol were followed. And meeting all criteria in insufficient</t>
-  </si>
-  <si>
-    <t>Provides a Research Data Management Plan is present and follows the guidelines set-out in the BUas DMP templates.</t>
-  </si>
-  <si>
-    <t>Provides a Codebook is present and follows the guidelines set-out in the BUas DMP templates. Potential ethical and legal concerns are adressed. And meets all criteria in poor.</t>
-  </si>
-  <si>
-    <t>Is able to identify the required input and desired output for acquiring language for a given use-case. And meeting all criteria in poor.</t>
-  </si>
-  <si>
-    <t>The student is able to create a cognitive model of language learning for a given use-case, specifically the student:</t>
-  </si>
-  <si>
-    <t>Creates a valid model flowchart to achieve language acquisition from the environment for a given use-case. And meeting all criteria in insufficient.</t>
-  </si>
-  <si>
-    <t>Designs their model for language acquisition in such a way to accomodate for differentiating evironmental conditions. And meeting all criteria in sufficient.</t>
-  </si>
-  <si>
-    <t>Understands the basic cognitive theory of language acquisition as demonstrated by a model flowchart.</t>
+    <t>Accurately tracks time spent on planned and unplanned work, noting reasons for and consequences of deviations from the planned work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some time-tracking is evidenced.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most tasks have been time-tracked in work log. And meeting all criteria in poor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The actuals of all tasks are time-tracked. Major deviations from estimates and unplanned tasks are reported in the learning log. Any impact on the planning is reflected upon. And meeting all criteria in insufficient. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All tasks on development have been time-tracked. Reflections on deviations have led to clear action points improving accuracy of tasks planned in the work log. And meeting all criteria in sufficient. </t>
+  </si>
+  <si>
+    <t>Evidence of analysis of time spent in various areas of development throughout the project. Reflection provides improvement points to time management and task estimations for future projects. And meeting all criteria in good.</t>
+  </si>
+  <si>
+    <t>7, 8, 9</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">0.0 Cognition Fundamentals​: Cognitive Models of Language Learning
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">3.1 Communication &amp; Presentation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The student is able to present their Kaggle submissions.</t>
+    </r>
+  </si>
+  <si>
+    <t>The student is able to present their Kaggle submissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The student is able to present their individual and team Kaggle submission to an audience. Participates in the presentation workshops. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The student is able to describe the objective of the Kaggle competition. Moreover</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>the student is able to prepare a well-organized presentation with easy-to-read slides. Brings issues to the table during standup sessions  when necessary. And meeting all criteria in poor.</t>
+    </r>
+  </si>
+  <si>
+    <t>The student exhibits knowledge of natural language processing by clearly explaining submission details such as preprocessing, algorithms and evaluation. Communicates effectively with all stakeholders, evidenced by peer review. And meeting all criteria in insufficient.</t>
+  </si>
+  <si>
+    <t>The student describes their best submission and at least five other submissions that led to the best submission, together with valid reasons for the iterations. Moreover, the student discusses whether the results of the iterations match their expectations. And meeting all criteria in sufficient.</t>
+  </si>
+  <si>
+    <t>The student is able to describe the best team submission and their personal contribution to it. Moreover, the student compares the best team submission to their best individual submission. Is able to improve the quality of the teamwork by clear communication, evidenced by peer review. And meeting all criteria in good.</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">4.0 Natural Language Processing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The student is able to develop natural language processing models.</t>
+    </r>
+  </si>
+  <si>
+    <t>The student is able to develop natural language processing models.</t>
+  </si>
+  <si>
+    <t>The student is able to preprocess text using regular expressions.</t>
+  </si>
+  <si>
+    <t>The student can apply tokenization and stemming to text data. And meeting all criteria in poor.</t>
+  </si>
+  <si>
+    <t>The student can use naïve bayes and logistic regression algorithms to build a binary classification model for sentiment analysis. And meeting all criteria in insufficient.</t>
+  </si>
+  <si>
+    <t>The student can use word embeddings to represent words as vectors and use these embeddings in their machine learning models. The student demonstrates knowledge of TF-IDF and part-of-speech tagging. And meeting all criteria in sufficient.</t>
+  </si>
+  <si>
+    <t>The student can use state-of-the-art NLP models as described in the project brief. And meeting all criteria in good.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">5.0 Kaggle Natural Language Processing Competition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The student is able to compete at a Kaggle natural language processing competition individually and as part of a team.</t>
+    </r>
+  </si>
+  <si>
+    <t>The student is able to compete at a Kaggle natural language processing competition individually and as part of a team.</t>
+  </si>
+  <si>
+    <t>The student is able to make a submission to a Kaggle competition individually.</t>
+  </si>
+  <si>
+    <t>The student is able to make a submission to a Kaggle competition individually that improves upon previous submission(s). Moreover, the student is able to make a team submission. And meeting all criteria in poor.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The student is able to reach the top 60% of the leaderboard on a Kaggle competition individually and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>iterate on their model;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>makes at least 20 different submissions individually. And meeting all criteria in insufficient.</t>
+    </r>
+  </si>
+  <si>
+    <t>The student is able to reach the top 40% of the leaderboard on a Kaggle competition individually and track their submissions. And meeting all criteria in sufficient.</t>
+  </si>
+  <si>
+    <t>The student is able to reach the top 20% of the leaderboard on a Kaggle competition individually. Moreover, the student is part of a team submission that performs better than all individual competitors. And meeting all criteria in good.</t>
+  </si>
+  <si>
+    <t>1, 6, 7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">6.0 Cognition Fundamentals​: Cognitive Models of Language Learning
 </t>
     </r>
     <r>
@@ -726,34 +432,468 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">0.0 Research Methodology: Data Management
+    <t>The student is able to create a cognitive model of language learning for a given use-case, specifically the student:</t>
+  </si>
+  <si>
+    <t>Understands the basic cognitive theory of auditory perception and language acquisition as demonstrated by a model flowchart.</t>
+  </si>
+  <si>
+    <t>Is able to identify the required input and desired output for acquiring language and meaning for a given use-case. And meeting all criteria in poor.</t>
+  </si>
+  <si>
+    <t>Creates a valid model flowchart to achieve language acquisition from the environment for a simple use-case. And meeting all criteria in insufficient.</t>
+  </si>
+  <si>
+    <t>Creates a model flowchart for language acquisition to accomodate for differentiating environmental conditions in a complex use-case. And meeting all criteria in sufficient.</t>
+  </si>
+  <si>
+    <t>Demonstrate the simmilarities and distictions between state-of-the-art NLP algorithms and human cognitive system in the context of language aquisition &amp; auditory perception. And meeting all criteria in good.</t>
+  </si>
+  <si>
+    <t>PROJECT TOTAL</t>
+  </si>
+  <si>
+    <t>YOUR TOTAL</t>
+  </si>
+  <si>
+    <t>ADS&amp;AI Competencies</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>CRISP Phase</t>
+  </si>
+  <si>
+    <t>Competency</t>
+  </si>
+  <si>
+    <t>Graduate Level</t>
+  </si>
+  <si>
+    <t>Professional Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project management and cooperation </t>
+  </si>
+  <si>
+    <t>The student can collaborate (internationally) in multidisciplinary teams with different levels of knowledge in the field of data use and applications. The student can set up and execute projects in collaboration with stakeholders and team members. The student can act as a sounding board in discussions with team members, customers, users and experts. The student strives for a good balance between input of her own vision and additional expertise of others. The student is able to lead a team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researching and reflective attitude </t>
+  </si>
+  <si>
+    <t>The student applies relevant (research) methods and techniques in combination with relevant and adequate argumentation. The student can reflect on (business) processes and her role in them, both theoretically and practically, by constantly evaluating her own actions and adapting them with input from others. The student can translate the result of the reflection into concrete personal learning objectives.</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>The student is aware of legal and ethical aspects within the context of her professional work environment and is able to make substantiated considerations in this regard. The student acts from justice and integrity.</t>
+  </si>
+  <si>
+    <t>Business understanding</t>
+  </si>
+  <si>
+    <t>Problem analysis</t>
+  </si>
+  <si>
+    <t>The student can analyse a problem by describing the context, trade-offs and formulation of the final demand (as a result of a process of demand articulation). In doing so, The student identifies the possible solutions. As a result, The student can formulate an approach for a data trajectory considering relevant actors and interests, involving relevant theories and (technical) possibilities.</t>
+  </si>
+  <si>
+    <t>Domain knowledge</t>
+  </si>
+  <si>
+    <t>The student has such knowledge of and insight into one or more domains that The student can function as a discussion partner for experts. The student is able to quickly immerse herself in new domains and associated professional networks.</t>
+  </si>
+  <si>
+    <t>Data understanding</t>
+  </si>
+  <si>
+    <t>Data collection and processing</t>
+  </si>
+  <si>
+    <t>The student masters (programming) skills to acquire, pre-process, process and manage the necessary data to create value for individuals, organizations and domains.</t>
+  </si>
+  <si>
+    <t>Data preparation</t>
+  </si>
+  <si>
+    <t>Data analysis</t>
+  </si>
+  <si>
+    <t>The student can use analytical and statistical methods to analyse data to create value for individuals, organizations and domains.</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>The student can apply modelling techniques including Machine Learning and AI to create value for individuals, organizations and domains.</t>
+  </si>
+  <si>
+    <t>Design, prototyping and implementation</t>
+  </si>
+  <si>
+    <t>The student can develop a prototype using an iterative cycle, explicitly involving stakeholders, and implement applications within an (existing) architecture.</t>
+  </si>
+  <si>
+    <t>Evaluation &amp; Deployment</t>
+  </si>
+  <si>
+    <t>Visualisation</t>
+  </si>
+  <si>
+    <t>The student can apply visualization and storytelling techniques and skills to effectively and accurately inform stakeholders about (interim) results of AI and DS approaches.</t>
+  </si>
+  <si>
+    <t>Reporting and advising</t>
+  </si>
+  <si>
+    <t>The studentan can translate (interim) results into effective reporting. The student sees opportunities and possibilities and can translate these from a market-oriented vision into new concepts, products or services, while keeping the business side of the organization in mind.</t>
+  </si>
+  <si>
+    <t>Dublin Descriptors</t>
+  </si>
+  <si>
+    <t>Outcomes</t>
+  </si>
+  <si>
+    <t>First cycle qualifications (Bachelor Level)
+Qualifications that signify completion of the first cycle are awarded to students who:</t>
+  </si>
+  <si>
+    <t>Second cycle qualifications (Master Level)
+Qualifications that signify completion of the second cycle are awarded to students who:</t>
+  </si>
+  <si>
+    <t>Knowledge and Understanding</t>
+  </si>
+  <si>
+    <t>Have demonstrated knowledge and understanding in a field of study that builds upon their general secondary education, and is typically at a level that, while supported by advanced textbooks, includes some aspects that will be informed by knowledge of the forefront of their field of study.</t>
+  </si>
+  <si>
+    <t>Have demonstrated knowledge and understanding that is founded upon and extends and/or enhances that typically associated with the first cycle, and that provides a basis or opportunity for originality in developing and/or applying ideas, often within a research context.</t>
+  </si>
+  <si>
+    <t>Applying Knowledge and Understanding</t>
+  </si>
+  <si>
+    <t>Can apply their knowledge and understanding in a manner that indicates a professional approach to their work or vocation, and have competences typically demonstrated through devising and sustaining arguments and solving problems within their field of study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can apply their knowledge and understanding, and problem solving abilities in new or unfamiliar environments within broader (or multidisciplinary) contexts related to their field of study.
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The student is able to develop and implement appropriate data management methods integrating legal and ethical concerns to facilitate their study design.​</t>
-    </r>
-  </si>
-  <si>
-    <t>Operationalizes their model to computational model of language learning to demonstrate a language acquisition for a given use-case. And meeting all criteria in good.</t>
-  </si>
-  <si>
-    <t>2022-23C FGA2.P1-ADSAI</t>
-  </si>
-  <si>
-    <t>5pm Friday 7th April</t>
+  </si>
+  <si>
+    <t>Making Judgements</t>
+  </si>
+  <si>
+    <t>Have the ability to gather and interpret relevant data (usually within their field of study) to inform judgements that include reflection on relevant social, scientific or ethical issues.</t>
+  </si>
+  <si>
+    <t>Have the ability to integrate knowledge and handle complexity, and formulate judgements with incomplete or limited information, but that include reflecting on social and ethical responsibilities linked to the application of their knowledge and judgements.</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Can communicate information, ideas, problems and solutions to both specialist and non- specialist audiences.</t>
+  </si>
+  <si>
+    <t>Can communicate their conclusions, and the knowledge and rationale underpinning these, to specialist and non-specialist audiences clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Learning Skills</t>
+  </si>
+  <si>
+    <t>Have developed those learning skills that are necessary for them to continue to undertake further study with a high degree of autonomy.</t>
+  </si>
+  <si>
+    <t>Have the learning skills to allow them to continue to study in a manner that may be largely self-directed or autonomous.</t>
+  </si>
+  <si>
+    <t>BLOCK C</t>
+  </si>
+  <si>
+    <t>Knowledge &amp; Insight</t>
+  </si>
+  <si>
+    <t>Application of K&amp;I</t>
+  </si>
+  <si>
+    <t>Can analyse a problem by describing the context, trade-offs and formulation of the final demand (as a result of a process of demand articulation). In doing so, she identifies the possible solutions. As a result, she can formulate an approach for a data trajectory considering relevant actors and interests, involving relevant theories and (technical) possibilities.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Masters (technological) skills to acquire, pre-process, process and manage the necessary data to create value for individuals, organizations and domains.</t>
+  </si>
+  <si>
+    <t>Can use analytical and statistical methods to analyse data to create value for individuals, organizations and domains.</t>
+  </si>
+  <si>
+    <t>Can apply modelling techniques including Machine Learning and AI to create value for individuals, organizations and domains.</t>
+  </si>
+  <si>
+    <t>Can develop a prototype using an iterative cycle, explicitly involving stakeholders, and implement applications within an (existing) architecture.</t>
+  </si>
+  <si>
+    <t>Can apply visualization and storytelling techniques and skills to effectively and accurately inform stakeholders about (interim) results of AI and DS approaches.</t>
+  </si>
+  <si>
+    <t>Can translate (interim) results into effective reporting. She sees opportunities and possibilities and can translate these from a market-oriented vision into new concepts, products or services, while keeping the business side of the organization in mind.</t>
+  </si>
+  <si>
+    <t>Can collaborate (internationally) in multidisciplinary teams with different levels of knowledge in the field of data use and applications. She can set up and execute projects in collaboration with stakeholders and team members. She can act as a sounding board in discussions with team members, customers, users and experts. She strives for a good balance between input of her own vision and additional expertise of others. She is able to lead a team.</t>
+  </si>
+  <si>
+    <t>Applies relevant (research) methods and techniques in combination with relevant and adequate argumentation. She can reflect on (business) processes and her role in them, both theoretically and practically, by constantly evaluating her own actions and adapting them with input from others. She can translate the result of the reflection into concrete personal learning objectives.</t>
+  </si>
+  <si>
+    <t>Is aware of legal and ethical aspects within the context of her professional work environment and is able to make substantiated considerations in this regard. She acts from justice and integrity.</t>
+  </si>
+  <si>
+    <t>ILO</t>
+  </si>
+  <si>
+    <t>Data Structure - Demonstrate understanding of standard data structure and able to derive required structures for the project with strong reasoning and able to discuss the pros and cons.</t>
+  </si>
+  <si>
+    <t>Missing (0 points)</t>
+  </si>
+  <si>
+    <t>Poor (2 points)</t>
+  </si>
+  <si>
+    <t>Insufficient (4 points)</t>
+  </si>
+  <si>
+    <t>Sufficient (6 points)</t>
+  </si>
+  <si>
+    <t>Good (8 points)</t>
+  </si>
+  <si>
+    <t>Excellent (10 points)</t>
+  </si>
+  <si>
+    <t>Demonstrates an understanding of standard datastructures and how they are selected, the internal structure and use.</t>
+  </si>
+  <si>
+    <t>Data Structure - Demonstrate understanding of standard data structures (Containers, algorithms, iterators etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not addressed this block in project work.
+</t>
+  </si>
+  <si>
+    <t>Research for the basic data structures is not enough to start the implementation for a working code.</t>
+  </si>
+  <si>
+    <t>Researched basic structures without much in depth analysis showing partial understanding of the concept .</t>
+  </si>
+  <si>
+    <t>Analysed the requirements for the project and researched those data structure well enough to get them working in the project.</t>
+  </si>
+  <si>
+    <t>Reseached in-depth, for performance factors (memory, runtime overheads, robustness etc..) of the data structures and able to conclude the pros &amp; cons of their implementation.</t>
+  </si>
+  <si>
+    <t>Researched the best practices for building a library which can be used for generic purposes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not evidenced this block in learning Log.
+</t>
+  </si>
+  <si>
+    <t>Poorly Evidenced in Learning Log.</t>
+  </si>
+  <si>
+    <t>Documentation fail to prove certain key points which help in mapping the research to the project's need.</t>
+  </si>
+  <si>
+    <t>The understanding is well documented including certain key reflection towards next steps on the topics.</t>
+  </si>
+  <si>
+    <t>Researched exceptions and edge conditions of the structures for robust implementation .</t>
+  </si>
+  <si>
+    <t>Presented an excellent research document, backed up with use cases and details from project.</t>
+  </si>
+  <si>
+    <t>Demonstrating understanding of performance (memory, runtime overheads, robustness etc..) of the derived data types, the overall game performance and memory footprint.</t>
+  </si>
+  <si>
+    <t>Data Stucture - Build your library of data stuctures</t>
+  </si>
+  <si>
+    <t>Not addressed this block in project work.</t>
+  </si>
+  <si>
+    <t>Poorly analysed the used case for data structure followed by incorrect to no implementation.</t>
+  </si>
+  <si>
+    <t>Standard operators are implemented to minimum functionality.</t>
+  </si>
+  <si>
+    <t>All standard operators are functional with only minor or no bugs.</t>
+  </si>
+  <si>
+    <t>Required data structures implemented fully and used well in project.</t>
+  </si>
+  <si>
+    <t>Library proves robustness with implemented unit test cases.</t>
+  </si>
+  <si>
+    <t>Deriving an efficient practice for a context, backing up with strong reasons for the chosen approach.</t>
+  </si>
+  <si>
+    <t>Poorly evidenced in Learning Log.</t>
+  </si>
+  <si>
+    <t>Rare use cases demonstrated in project.</t>
+  </si>
+  <si>
+    <t>Data structures partially organised in a library.</t>
+  </si>
+  <si>
+    <t>All or most of the data structures organised in a library.</t>
+  </si>
+  <si>
+    <t>Library is generic enough to be used for multiple projects this block.</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Working Environment : 3.1 - Proficient in using development and production tools at a professional level (e.g. Perforce, Visual Studio- 2019 as an editor / debugger / profiler).</t>
+  </si>
+  <si>
+    <t>Poor demonstration of use cases of VS2019 as a  editor, debugger. Repeated mistakes in using VS2019 due to lack of understanding and research on the topics. Did not demonstrated much learning on the topic and progress. 
+Poorly documented the learning.</t>
+  </si>
+  <si>
+    <t>Shown use cases and understanding of VS2019 as a C++ project editor.
+Can demonstrate some usertanding and use cases of VS2019 Debugger.</t>
+  </si>
+  <si>
+    <t>Can demonstrate extensive use of VS2019 debugger. 
+Researched and included VS2019 plugins and shows understanding of the usage and purposes of the plugins.
+Can create VS2019 C++ project from scratch
+Can maintain filters and physical folders with consistent naming conventions for VS2019 projects.</t>
+  </si>
+  <si>
+    <t>Can proficiently use VS2019 profiler and shows understanding of profiler concepts and how they can useful in improving performance of game
+researched into atleast 1 or more profilers (CPU/GPU) and discussed the pros and cons or similaritites with VS2019 profiler.
+Based on the project's requirement invest into atleast 1 more production /developement tool (eg: 2D-Level editors, Sound Editors etc.).</t>
+  </si>
+  <si>
+    <t>Attitude towards building an automatic pipeline integrating production tools for build releases or production helpers.</t>
+  </si>
+  <si>
+    <t>Perforce</t>
+  </si>
+  <si>
+    <t>Poor understanding of source control operations, and consistent repetation of minor mistakes using perforce for project without showcasing any progress in learning. Poorly documented evidence</t>
+  </si>
+  <si>
+    <t>Can use perforce for a day to day basis with basic functionalities, but does not demonstrate much understanding of concepts through use cases or learning documents.</t>
+  </si>
+  <si>
+    <t>Demonstrates understanding of Perforce by showing use of atleast 4 or more operations and their purposes. Shows clear understanding of working with source control - Changelist, versions etc.</t>
+  </si>
+  <si>
+    <t>Demonstrates understanding of Perforce by showing: 1) use of atleast 6 or more operations and their purposes. 2) Atleast 1 use case showcasing alternate set of operations serving the same use case. Shows clear understanding of source control termilogy - Client/Server/Workspace.</t>
+  </si>
+  <si>
+    <t>Optional, uses perforce commandline utility to build and configure custom perforce clients for basic operations.</t>
+  </si>
+  <si>
+    <t>Working Environment : 3.2 - Understanding C++ Build Process &amp; setting up and maintaining multiple game projects optimally where the projects easily check-out and compiles on other computers.</t>
+  </si>
+  <si>
+    <t>Learning evidence and project setup demonstrates poor understanding of the build process in C++.</t>
+  </si>
+  <si>
+    <t>Sufficient understanding of pre-compile and compile stage, but insufficient understanding of Linker stage. Documents not well written to demonstate the learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows basic understanding of 3 key phases of C++ build process (precompile, compile and link stage) and reports the learning well in document and applies them in project. Makes suitable judgement of the files that needs to be or does not need to be on Perforce . </t>
+  </si>
+  <si>
+    <t>Shows in depth analysis of the stages of build process in C++ project. 
+Only the essential source files for building the game is submitted to perforce atleast 80% of the block.</t>
+  </si>
+  <si>
+    <t>Explore other build option than VS2019. (Commandline and batch files can also be considered)</t>
+  </si>
+  <si>
+    <t>Final build compiles and runs with less than 3 warnings and no errors</t>
+  </si>
+  <si>
+    <t>Source code from perforce can be downloaded and build with no errors and warnings more than 80% of the time throughout the block</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Use of C++ efficiently &amp; effectively and OOP design principles.</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>No evidence provided</t>
+  </si>
+  <si>
+    <t>Poor understanding of C++ language constructs</t>
+  </si>
+  <si>
+    <t>Correct usage of basic data types, casting methods, references, and pointers. Understands scope, object lifetime, and control flow</t>
+  </si>
+  <si>
+    <t>Appropriate usage of classes, functions, polymorphism and abstraction. Code runs cleanly without any crashes. Understanding of basic memory primitives such as arrays.</t>
+  </si>
+  <si>
+    <t>Documented reasoning behind decisions with regards to performance and memory usage of chosen algorithms. No memory leaks or undefined behaviour present in the code. Understanding of the stack and heap. Understanding of binary and bitwise operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applies modern C++ guidelines with a clear reasoning why or why not. Consistent coding style. Const-correct code with clear and defined responsibilities for all objects and functions. </t>
+  </si>
+  <si>
+    <t>OOP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -927,8 +1067,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="53">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,12 +1277,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E7FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -1193,54 +1353,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFD0E0E3"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1249,11 +1391,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1263,6 +1465,120 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1272,10 +1588,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1422,14 +1738,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1438,16 +1757,16 @@
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1456,25 +1775,9 @@
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1482,8 +1785,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1492,10 +1795,10 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1507,105 +1810,176 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="48" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1629,6 +2003,7 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,49 +2019,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1703,51 +2068,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9902F182-0AFB-1F41-B571-EB1D4AC04E32}"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2005,14 +2326,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Student Self-Assessment Sheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="38"/>
-      <tableStyleElement type="firstRowStripe" dxfId="37"/>
-      <tableStyleElement type="secondRowStripe" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
     <tableStyle name="Copy of Student Self-Assessment-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="35"/>
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2232,32 +2553,32 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="10" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="39" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="39" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" style="39" customWidth="1"/>
-    <col min="10" max="11" width="36.85546875" style="39" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="39" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="39" customWidth="1"/>
-    <col min="14" max="16" width="6.85546875" style="39" customWidth="1"/>
-    <col min="17" max="16384" width="14.42578125" style="39"/>
+    <col min="5" max="5" width="22.88671875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" style="39" customWidth="1"/>
+    <col min="10" max="11" width="36.88671875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" style="39" customWidth="1"/>
+    <col min="14" max="16" width="6.88671875" style="39" customWidth="1"/>
+    <col min="17" max="16384" width="14.44140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2274,15 +2595,22 @@
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+    </row>
+    <row r="2" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -2294,12 +2622,19 @@
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="17"/>
-    </row>
-    <row r="3" spans="1:16" s="23" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+    </row>
+    <row r="3" spans="1:23" s="23" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2309,133 +2644,168 @@
       <c r="G3" s="21"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130" t="s">
+      <c r="K3" s="156"/>
+      <c r="L3" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
       <c r="O3" s="20"/>
       <c r="P3" s="19"/>
     </row>
-    <row r="4" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="109"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136" t="s">
+      <c r="F4" s="151"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="137">
-        <f>IF(ROUND((N24/10),1)&lt;&gt;ROUND((N24/10),0),ROUND((N2/10),1),ROUND((N24/10),0))</f>
+      <c r="M4" s="157">
+        <f>N25/10</f>
         <v>0</v>
       </c>
-      <c r="N4" s="138" t="str">
+      <c r="N4" s="158" t="str">
         <f>IF(M4&gt;=5.5,"PASS",IF(M4&gt;0,"FAIL","M/O"))</f>
         <v>M/O</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="17"/>
-    </row>
-    <row r="5" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+    </row>
+    <row r="5" spans="1:23" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="129"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
       <c r="O5" s="18"/>
       <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="90" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
       <c r="O6" s="18"/>
       <c r="P6" s="17"/>
-    </row>
-    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="129"/>
+      <c r="C7" s="150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="156"/>
       <c r="E7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
+        <v>11</v>
+      </c>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
       <c r="O7" s="18"/>
       <c r="P7" s="17"/>
-    </row>
-    <row r="8" spans="1:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+    </row>
+    <row r="8" spans="1:23" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="140" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="141"/>
+      <c r="C8" s="160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="161"/>
       <c r="E8" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
+        <v>13</v>
+      </c>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
       <c r="O8" s="18"/>
       <c r="P8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+    </row>
+    <row r="9" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2452,8 +2822,15 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2470,15 +2847,22 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+    </row>
+    <row r="11" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
+      <c r="C11" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2490,188 +2874,230 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+    </row>
+    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="43" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L12" s="43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O12" s="26"/>
       <c r="P12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+    </row>
+    <row r="13" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="143">
-        <v>9</v>
-      </c>
-      <c r="D13" s="152" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="28"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="118">
+        <v>10</v>
+      </c>
+      <c r="D13" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" ht="118.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+    </row>
+    <row r="14" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="97" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="102" t="s">
+      <c r="E14" s="147"/>
+      <c r="F14" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="103" t="s">
-        <v>186</v>
-      </c>
-      <c r="K14" s="104" t="s">
-        <v>175</v>
+      <c r="G14" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>33</v>
       </c>
       <c r="L14" s="42">
         <v>10</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N14" s="42">
         <f>IF(M14="MISSING",0,IF(M14="POOR",(L14*0.2),IF(M14="INSUFFICIENT",(L14*0.4),IF(M14="SUFFICIENT",(L14*0.6),IF(M14="GOOD",(L14*0.8),IF(M14="EXCELLENT",L14,"ERROR"))))))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="28"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+    </row>
+    <row r="15" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="28"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="118">
+        <v>9</v>
+      </c>
+      <c r="D15" s="145" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="26"/>
       <c r="P15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+    </row>
+    <row r="16" spans="1:23" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="148"/>
-      <c r="F16" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="103" t="s">
+      <c r="C16" s="119"/>
+      <c r="D16" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="104" t="s">
-        <v>178</v>
+      <c r="E16" s="147"/>
+      <c r="F16" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="L16" s="42">
         <v>10</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N16" s="42">
         <f>IF(M16="MISSING",0,IF(M16="POOR",(L16*0.2),IF(M16="INSUFFICIENT",(L16*0.4),IF(M16="SUFFICIENT",(L16*0.6),IF(M16="GOOD",(L16*0.8),IF(M16="EXCELLENT",L16,"ERROR"))))))</f>
         <v>0</v>
       </c>
-      <c r="O16" s="28"/>
+      <c r="O16" s="26"/>
       <c r="P16" s="17"/>
-    </row>
-    <row r="17" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+    </row>
+    <row r="17" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="146" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="148" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
       <c r="O17" s="28"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="53"/>
@@ -2682,37 +3108,37 @@
       <c r="V17" s="53"/>
       <c r="W17" s="53"/>
     </row>
-    <row r="18" spans="1:23" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="125" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="148"/>
-      <c r="F18" s="95" t="s">
+      <c r="C18" s="119"/>
+      <c r="D18" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="141"/>
+      <c r="F18" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="42">
         <v>25</v>
       </c>
-      <c r="G18" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="I18" s="102" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="L18" s="42">
-        <v>10</v>
-      </c>
       <c r="M18" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N18" s="42">
         <f>IF(M18="MISSING",0,IF(M18="POOR",(L18*0.2),IF(M18="INSUFFICIENT",(L18*0.4),IF(M18="SUFFICIENT",(L18*0.6),IF(M18="GOOD",(L18*0.8),IF(M18="EXCELLENT",L18,"ERROR"))))))</f>
@@ -2728,25 +3154,25 @@
       <c r="V18" s="53"/>
       <c r="W18" s="53"/>
     </row>
-    <row r="19" spans="1:23" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="143">
-        <v>3</v>
-      </c>
-      <c r="D19" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="88"/>
       <c r="O19" s="28"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="53"/>
@@ -2757,71 +3183,71 @@
       <c r="V19" s="53"/>
       <c r="W19" s="53"/>
     </row>
-    <row r="20" spans="1:23" s="51" customFormat="1" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="151" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="151"/>
-      <c r="F20" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>200</v>
+    <row r="20" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="141"/>
+      <c r="F20" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="J20" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>205</v>
+        <v>55</v>
+      </c>
+      <c r="K20" s="87" t="s">
+        <v>56</v>
       </c>
       <c r="L20" s="42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N20" s="42">
         <f>IF(M20="MISSING",0,IF(M20="POOR",(L20*0.2),IF(M20="INSUFFICIENT",(L20*0.4),IF(M20="SUFFICIENT",(L20*0.6),IF(M20="GOOD",(L20*0.8),IF(M20="EXCELLENT",L20,"ERROR"))))))</f>
         <v>0</v>
       </c>
-      <c r="O20" s="50"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-    </row>
-    <row r="21" spans="1:23" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="28"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+    </row>
+    <row r="21" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="143" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="144" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
+      <c r="C21" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
       <c r="O21" s="28"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="53"/>
@@ -2832,37 +3258,37 @@
       <c r="V21" s="53"/>
       <c r="W21" s="53"/>
     </row>
-    <row r="22" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="109"/>
+      <c r="C22" s="119"/>
       <c r="D22" s="142" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="75" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="E22" s="141"/>
+      <c r="F22" s="72" t="s">
+        <v>28</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>195</v>
+        <v>60</v>
+      </c>
+      <c r="I22" s="115" t="s">
+        <v>61</v>
       </c>
       <c r="J22" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="K22" s="93" t="s">
-        <v>193</v>
+        <v>62</v>
+      </c>
+      <c r="K22" s="87" t="s">
+        <v>63</v>
       </c>
       <c r="L22" s="42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N22" s="42">
         <f>IF(M22="MISSING",0,IF(M22="POOR",(L22*0.2),IF(M22="INSUFFICIENT",(L22*0.4),IF(M22="SUFFICIENT",(L22*0.6),IF(M22="GOOD",(L22*0.8),IF(M22="EXCELLENT",L22,"ERROR"))))))</f>
@@ -2876,25 +3302,27 @@
       <c r="T22" s="53"/>
       <c r="U22" s="53"/>
       <c r="V22" s="53"/>
-      <c r="W22" s="72"/>
-    </row>
-    <row r="23" spans="1:23" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W22" s="53"/>
+    </row>
+    <row r="23" spans="1:23" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="124" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="145" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
       <c r="O23" s="28"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="53"/>
@@ -2905,71 +3333,77 @@
       <c r="V23" s="53"/>
       <c r="W23" s="53"/>
     </row>
-    <row r="24" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="125"/>
-      <c r="F24" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="100" t="s">
-        <v>47</v>
+    <row r="24" spans="1:23" s="51" customFormat="1" ht="111.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="147"/>
+      <c r="F24" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>71</v>
       </c>
       <c r="L24" s="42">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N24" s="42">
         <f>IF(M24="MISSING",0,IF(M24="POOR",(L24*0.2),IF(M24="INSUFFICIENT",(L24*0.4),IF(M24="SUFFICIENT",(L24*0.6),IF(M24="GOOD",(L24*0.8),IF(M24="EXCELLENT",L24,"ERROR"))))))</f>
         <v>0</v>
       </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-    </row>
-    <row r="25" spans="1:23" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="50"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+    </row>
+    <row r="25" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="85">
+        <f>SUM(L14,L16,L18,L20,L22,L24)</f>
+        <v>100</v>
+      </c>
+      <c r="M25" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="85">
+        <f>SUM(N14,N16,N18,N20,N22,N24)</f>
+        <v>0</v>
+      </c>
       <c r="O25" s="28"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="53"/>
@@ -2980,712 +3414,679 @@
       <c r="V25" s="53"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="125" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="42">
-        <v>20</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="42">
-        <f>IF(M26="MISSING",0,IF(M26="POOR",(L26*0.2),IF(M26="INSUFFICIENT",(L26*0.4),IF(M26="SUFFICIENT",(L26*0.6),IF(M26="GOOD",(L26*0.8),IF(M26="EXCELLENT",L26,"ERROR"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="28"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="17"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-    </row>
-    <row r="27" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:23" s="53" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="L27" s="91">
-        <f>SUM(L14,L16,L18,L20,L22,L24,L26)</f>
-        <v>100</v>
-      </c>
-      <c r="M27" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="N27" s="92">
-        <f>SUM(N14,N16,N18,N20,N22,N24,N26)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-    </row>
-    <row r="28" spans="1:23" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:23" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="119"/>
+      <c r="F28" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="29"/>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" spans="1:23" s="53" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
+      <c r="C29" s="59">
+        <v>9</v>
+      </c>
+      <c r="D29" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="133"/>
+      <c r="F29" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="60">
+        <v>3</v>
+      </c>
+      <c r="O29" s="29"/>
       <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="1:23" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="109"/>
-      <c r="F30" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="86" t="s">
-        <v>57</v>
+      <c r="C30" s="61">
+        <v>10</v>
+      </c>
+      <c r="D30" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="133"/>
+      <c r="F30" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="62">
+        <v>3</v>
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:23" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="29"/>
-      <c r="C31" s="60">
-        <v>9</v>
-      </c>
-      <c r="D31" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="122"/>
-      <c r="F31" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="61">
+      <c r="C31" s="59">
+        <v>11</v>
+      </c>
+      <c r="D31" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="133"/>
+      <c r="F31" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="60">
         <v>3</v>
       </c>
       <c r="O31" s="29"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:23" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="62">
-        <v>10</v>
-      </c>
-      <c r="D32" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="123" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="63">
+      <c r="C32" s="63">
+        <v>1</v>
+      </c>
+      <c r="D32" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="130"/>
+      <c r="F32" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="64">
         <v>3</v>
       </c>
       <c r="O32" s="29"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:16" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="29"/>
-      <c r="C33" s="60">
-        <v>11</v>
-      </c>
-      <c r="D33" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="122"/>
-      <c r="F33" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="123" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="61">
+      <c r="C33" s="65">
+        <v>2</v>
+      </c>
+      <c r="D33" s="137" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="128"/>
+      <c r="F33" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="66">
         <v>3</v>
       </c>
       <c r="O33" s="29"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:16" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="64">
-        <v>1</v>
-      </c>
-      <c r="D34" s="119" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="119"/>
-      <c r="F34" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="65">
+      <c r="C34" s="67">
+        <v>3</v>
+      </c>
+      <c r="D34" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="125"/>
+      <c r="F34" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="68">
         <v>3</v>
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="17"/>
     </row>
-    <row r="35" spans="1:16" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="29"/>
-      <c r="C35" s="66">
-        <v>2</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="113"/>
-      <c r="F35" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="67">
+      <c r="C35" s="69">
+        <v>4</v>
+      </c>
+      <c r="D35" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="128"/>
+      <c r="F35" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="70">
         <v>3</v>
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="17"/>
     </row>
-    <row r="36" spans="1:16" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="29"/>
-      <c r="C36" s="68">
-        <v>3</v>
-      </c>
-      <c r="D36" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="69">
+      <c r="C36" s="63">
+        <v>5</v>
+      </c>
+      <c r="D36" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="131"/>
+      <c r="F36" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="64">
         <v>3</v>
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:16" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="29"/>
-      <c r="C37" s="70">
-        <v>4</v>
-      </c>
-      <c r="D37" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="113"/>
-      <c r="F37" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="114" t="s">
-        <v>180</v>
-      </c>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="71">
+      <c r="C37" s="65">
+        <v>6</v>
+      </c>
+      <c r="D37" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="128"/>
+      <c r="F37" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="66">
         <v>3</v>
       </c>
       <c r="O37" s="29"/>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="29"/>
-      <c r="C38" s="64">
-        <v>5</v>
-      </c>
-      <c r="D38" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="120"/>
-      <c r="F38" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="117" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="65">
+      <c r="C38" s="67">
+        <v>7</v>
+      </c>
+      <c r="D38" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="125"/>
+      <c r="F38" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="126"/>
+      <c r="N38" s="68">
         <v>3</v>
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" spans="1:16" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="53" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="29"/>
-      <c r="C39" s="66">
-        <v>6</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="113"/>
-      <c r="F39" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="114" t="s">
-        <v>182</v>
-      </c>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="67">
+      <c r="C39" s="69">
+        <v>8</v>
+      </c>
+      <c r="D39" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="128"/>
+      <c r="F39" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
+      <c r="N39" s="70">
         <v>3</v>
       </c>
       <c r="O39" s="29"/>
       <c r="P39" s="17"/>
     </row>
-    <row r="40" spans="1:16" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="68">
-        <v>7</v>
-      </c>
-      <c r="D40" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="116"/>
-      <c r="F40" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="69">
-        <v>3</v>
-      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
       <c r="O40" s="29"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:16" s="53" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="70">
-        <v>8</v>
-      </c>
-      <c r="D41" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="113"/>
-      <c r="F41" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="71">
-        <v>3</v>
-      </c>
-      <c r="O41" s="29"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:16" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="53" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="77"/>
+      <c r="F43" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="119"/>
+      <c r="O43" s="18"/>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:16" s="53" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" s="53" customFormat="1" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35">
+        <v>1</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="74"/>
+      <c r="F44" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="121"/>
       <c r="O44" s="18"/>
       <c r="P44" s="17"/>
     </row>
-    <row r="45" spans="1:16" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="53" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45" s="109"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="109"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="37">
+        <v>2</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="73"/>
+      <c r="F45" s="135" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" s="121"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121"/>
       <c r="O45" s="18"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="1:16" s="53" customFormat="1" ht="49.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="53" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="34"/>
       <c r="C46" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="79"/>
-      <c r="F46" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106"/>
-      <c r="N46" s="106"/>
+        <v>116</v>
+      </c>
+      <c r="E46" s="74"/>
+      <c r="F46" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" s="121"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="121"/>
       <c r="O46" s="18"/>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="1:16" s="53" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="53" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="34"/>
       <c r="C47" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="107" t="s">
-        <v>90</v>
-      </c>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
+        <v>119</v>
+      </c>
+      <c r="E47" s="73"/>
+      <c r="F47" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="135" t="s">
+        <v>121</v>
+      </c>
+      <c r="K47" s="121"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="121"/>
       <c r="O47" s="18"/>
       <c r="P47" s="17"/>
     </row>
-    <row r="48" spans="1:16" s="53" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="34"/>
       <c r="C48" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
+        <v>122</v>
+      </c>
+      <c r="E48" s="74"/>
+      <c r="F48" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="K48" s="121"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="121"/>
+      <c r="N48" s="121"/>
       <c r="O48" s="18"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" s="53" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="37">
-        <v>4</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="78"/>
-      <c r="F49" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
       <c r="O49" s="18"/>
       <c r="P49" s="17"/>
     </row>
-    <row r="50" spans="1:16" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35">
-        <v>5</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="79"/>
-      <c r="F50" s="105" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="18"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="17"/>
-    </row>
-    <row r="52" spans="1:16" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="53"/>
       <c r="B53" s="53"/>
       <c r="C53" s="53"/>
@@ -3702,8 +4103,15 @@
       <c r="N53" s="53"/>
       <c r="O53" s="53"/>
       <c r="P53" s="53"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="53"/>
+      <c r="W53" s="53"/>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="53"/>
       <c r="B54" s="53"/>
       <c r="C54" s="53"/>
@@ -3720,35 +4128,321 @@
       <c r="N54" s="53"/>
       <c r="O54" s="53"/>
       <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="53"/>
+      <c r="W55" s="53"/>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="53"/>
+      <c r="W56" s="53"/>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="53"/>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="53"/>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="53"/>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="53"/>
+      <c r="T62" s="53"/>
+      <c r="U62" s="53"/>
+      <c r="V62" s="53"/>
+      <c r="W62" s="53"/>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="53"/>
+      <c r="V64" s="53"/>
+      <c r="W64" s="53"/>
+    </row>
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+    </row>
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="C11:L12 C19:L19 C20:H20 J20:L20 C21:L21 D14:L18 C23:L26 C22:J22 L22" name="Range1_2_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="C15 C17" name="Range1_2_1_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="C13:C14" name="Range1_2_1_1_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="D13:L13" name="Range1_2_1_4"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="I20" name="Range1_2_1_2"/>
-    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="K22" name="Range1_2_1_3"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="C11:L12 C23:L23 C24:H24 C13:C22 J24:L24 D19:K19 D20:J20 D21:K21 D22:J22 D15:K15 D16:H16 J16:K16 D13:K13 D14:H14 J14:K14 D18:J18 D17:K17 L13:L22" name="Range1_2_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="I24 I16 I14" name="Range1_2_1_2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="K18 K20 K22" name="Range1_2_1_3"/>
   </protectedRanges>
   <mergeCells count="71">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:I8"/>
@@ -3760,109 +4454,105 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:K23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:M29"/>
     <mergeCell ref="G32:M32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:M31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="G33:M33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="G34:M34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="G35:M35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:M36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="J48:N48"/>
+    <mergeCell ref="F44:I44"/>
   </mergeCells>
   <conditionalFormatting sqref="N4">
-    <cfRule type="containsText" dxfId="32" priority="81" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="26" priority="99" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH(("FAIL"),(N4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="31" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="100" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="30" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="101" operator="equal">
       <formula>"M/O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22 M20 M14 M18">
-    <cfRule type="cellIs" dxfId="29" priority="56" operator="equal">
+  <conditionalFormatting sqref="M19:M20 M24 M22">
+    <cfRule type="cellIs" dxfId="23" priority="74" operator="equal">
       <formula>"EXCELLENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="75" operator="equal">
       <formula>"GOOD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="76" operator="equal">
       <formula>"SUFFICIENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="77" operator="equal">
       <formula>"INSUFFICIENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="79" operator="equal">
       <formula>"MISSING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22 M20 M14 M18">
-    <cfRule type="cellIs" dxfId="24" priority="62" operator="equal">
+  <conditionalFormatting sqref="M19:M20 M24 M22">
+    <cfRule type="cellIs" dxfId="18" priority="80" operator="equal">
       <formula>"POOR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>"EXCELLENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>"GOOD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"SUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"INSUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
-      <formula>"MISSING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
-      <formula>"POOR"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
+  <conditionalFormatting sqref="M14">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"EXCELLENT"</formula>
     </cfRule>
@@ -3879,12 +4569,12 @@
       <formula>"MISSING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
+  <conditionalFormatting sqref="M14">
     <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"POOR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
+  <conditionalFormatting sqref="M16">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"EXCELLENT"</formula>
     </cfRule>
@@ -3901,12 +4591,12 @@
       <formula>"MISSING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
+  <conditionalFormatting sqref="M16">
     <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"POOR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
+  <conditionalFormatting sqref="M18">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"EXCELLENT"</formula>
     </cfRule>
@@ -3923,13 +4613,13 @@
       <formula>"MISSING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
+  <conditionalFormatting sqref="M18">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"POOR"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please select from Missing through to Excellent." sqref="M20 M26 M18 M22 M24 M13:M14 M16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please select from Missing through to Excellent." sqref="M14 M24 M16 M18:M20 M22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$12:$K$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -3940,147 +4630,421 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F364E9-2EB7-5940-933A-B5F5600966F3}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22A4AA9-DDF1-4A07-B08B-385378F7D0F6}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="72"/>
-    <col min="2" max="2" width="23.85546875" style="72" customWidth="1"/>
-    <col min="3" max="3" width="115.85546875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="72" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="72" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="72" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="72" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="72" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="72"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="129"/>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="74"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:15" s="73" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:15" s="73" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:15" s="73" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:15" s="73" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="164"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="167"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="168" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="169"/>
+      <c r="C3" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="170" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="172"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94">
+        <v>1</v>
+      </c>
+      <c r="E4" s="95">
+        <v>2</v>
+      </c>
+      <c r="F4" s="95">
+        <v>3</v>
+      </c>
+      <c r="G4" s="95">
+        <v>4</v>
+      </c>
+      <c r="H4" s="96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="97"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
+    </row>
+    <row r="7" spans="1:8" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="104">
+        <v>1</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="104">
+        <v>3</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="104"/>
+    </row>
+    <row r="9" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="104">
+        <v>4</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="104"/>
+    </row>
+    <row r="10" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="104">
+        <v>5</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="104"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="104">
+        <v>6</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="104"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="116">
+        <v>7</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="117"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A13" s="116">
+        <v>8</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="117"/>
+    </row>
+    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A14" s="107">
+        <v>9</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="107">
+        <v>10</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="112">
+        <v>11</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="113" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K3:N3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4095,45 +5059,45 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="159" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
+        <v>139</v>
+      </c>
+      <c r="B2" s="175" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="F3" s="10"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4150,10 +5114,10 @@
       <c r="S3" s="2"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
+    <row r="4" spans="1:20" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="F4" s="10"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4170,35 +5134,35 @@
       <c r="S4" s="2"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="157" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
+    <row r="5" spans="1:20" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
       <c r="F5" s="10">
         <v>6.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="N5" s="2" t="e">
         <f ca="1">_xludf.CONCAT(M5,M6)</f>
@@ -4226,28 +5190,28 @@
       </c>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+    <row r="6" spans="1:20" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -4257,35 +5221,35 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
+    <row r="7" spans="1:20" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="173" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
       <c r="F7" s="10">
         <v>6.2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="N7" s="2" t="e">
         <f ca="1">_xludf.CONCAT(M7,M8)</f>
@@ -4313,30 +5277,30 @@
       </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="157" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
+    <row r="8" spans="1:20" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="B8" s="173" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -4346,7 +5310,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G9" s="10"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10"/>
@@ -4354,7 +5318,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
       <c r="H10" s="4"/>
       <c r="I10" s="10"/>
@@ -4363,7 +5327,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G11" s="10"/>
       <c r="H11" s="4"/>
       <c r="I11" s="10"/>
@@ -4372,7 +5336,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G12" s="10"/>
       <c r="H12" s="4"/>
       <c r="I12" s="10"/>
@@ -4381,57 +5345,57 @@
       <c r="L12" s="10"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="158"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
+    <row r="13" spans="1:20" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="174"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
       <c r="G13" s="10"/>
       <c r="H13" s="4" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="157" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="173" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
       <c r="F14" s="10">
         <v>3.1</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="5" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="N14" s="2" t="e">
         <f ca="1">_xludf.CONCAT(M14,M15)</f>
@@ -4458,31 +5422,31 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="G15" s="12" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -4491,7 +5455,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G17" s="10"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -4500,33 +5464,33 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="255" x14ac:dyDescent="0.2">
-      <c r="B18" s="157" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
+    <row r="18" spans="2:19" ht="251.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="173" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
       <c r="F18" s="10">
         <v>3.2</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="5" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="N18" s="4" t="e">
         <f ca="1">_xludf.CONCAT(M18,M19)</f>
@@ -4553,22 +5517,22 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" ht="132" x14ac:dyDescent="0.25">
       <c r="G19" s="10"/>
       <c r="H19" s="9" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G20" s="10"/>
       <c r="H20" s="4"/>
       <c r="I20" s="10"/>
@@ -4577,7 +5541,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -4586,7 +5550,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -4595,57 +5559,57 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="24" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H24" s="10" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="290.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B25" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
       <c r="G25" s="10" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G26" s="10" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4665,14 +5629,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064DEF28CA2629948A9F801C782641252" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d88cf87ad5ac9fc8fb83d77fe1635d4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd38d267-56bb-4e22-b975-199a06fd69fa" xmlns:ns3="d8c712e5-67fc-4595-93cb-a4164dd8eff3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d44111b7d9e9f445610cec830697d19" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064DEF28CA2629948A9F801C782641252" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c6005e7f719c391f8a081f21693d65f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd38d267-56bb-4e22-b975-199a06fd69fa" xmlns:ns3="d8c712e5-67fc-4595-93cb-a4164dd8eff3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16135cc8f915f339c57eb2d0574bad" ns2:_="" ns3:_="">
     <xsd:import namespace="bd38d267-56bb-4e22-b975-199a06fd69fa"/>
     <xsd:import namespace="d8c712e5-67fc-4595-93cb-a4164dd8eff3"/>
     <xsd:element name="properties">
@@ -4693,6 +5651,9 @@
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4755,6 +5716,20 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="365a90ea-d0e7-4aae-8ef9-9f5dd1eb65e3" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="23" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8c712e5-67fc-4595-93cb-a4164dd8eff3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4784,6 +5759,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5e624992-a676-4554-99c9-a3d8ae70b3e3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d8c712e5-67fc-4595-93cb-a4164dd8eff3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4885,7 +5871,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4894,25 +5880,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D98D897-3D5D-4CF5-A274-8B2E15AE73B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bd38d267-56bb-4e22-b975-199a06fd69fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d8c712e5-67fc-4595-93cb-a4164dd8eff3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd38d267-56bb-4e22-b975-199a06fd69fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8c712e5-67fc-4595-93cb-a4164dd8eff3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A22DEBAC-93F7-4736-A2B9-33A782348601}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA61F52A-E985-4BB7-90FA-7462F8637E00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4930,10 +5910,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB72468-B9EB-412A-8D55-6151E9A308C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D98D897-3D5D-4CF5-A274-8B2E15AE73B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d8c712e5-67fc-4595-93cb-a4164dd8eff3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bd38d267-56bb-4e22-b975-199a06fd69fa"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>